--- a/CRM/Excels/VIT2.xlsx
+++ b/CRM/Excels/VIT2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\İbrahim\Desktop\Python_Modul_Week_4-main\Python_Modul_Week_4-main\CRM\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8755C8-FB1F-43A0-8C81-279B57739E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937711C4-7EFF-44AC-ACC7-F391FF329A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="630" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -33,75 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
-  <si>
-    <t>Zaman damgası</t>
-  </si>
-  <si>
-    <t>Adınız Soyadınız</t>
-  </si>
-  <si>
-    <t>Mail adresiniz</t>
-  </si>
-  <si>
-    <t>Telefon Numaranız</t>
-  </si>
-  <si>
-    <t>Posta Kodunuz</t>
-  </si>
-  <si>
-    <t>Yaşadığınız Eyalet</t>
-  </si>
-  <si>
-    <t>Şu anki durumunuz</t>
-  </si>
-  <si>
-    <t>Yakın zamanda başlayacak ITPH Cybersecurity veya Powerplatform Eğitimlerine Katılmak istemisiniz</t>
-  </si>
-  <si>
-    <t>Ekonomik Durumunuz</t>
-  </si>
-  <si>
-    <t>Şu anda bir dil kursuna devam ediyor musunuz?</t>
-  </si>
-  <si>
-    <t>Yabancı dil Seviyeniz [İngilizce]</t>
-  </si>
-  <si>
-    <t>Yabancı dil Seviyeniz [Hollandaca]</t>
-  </si>
-  <si>
-    <t>Belediyenizden çalışma ile ilgili baskı görüyor musunuz?</t>
-  </si>
-  <si>
-    <t>Başka bir IT kursu (Bootcamp) bitirdiniz mi?</t>
-  </si>
-  <si>
-    <t>İnternetten herhangi bir IT kursu takip ettiniz mi (Coursera, Udemy gibi)</t>
-  </si>
-  <si>
-    <t>Daha önce herhangi bir IT iş tecrübeniz var mı?</t>
-  </si>
-  <si>
-    <t>Şu anda herhangi bir projeye dahil misiniz? (Öğretmenlik projesi veya Leerwerktraject v.s)</t>
-  </si>
-  <si>
-    <t>IT sektöründe hangi bölüm veya bölümlerde çalışmak istiyorsunuz ,bir den fazla seçenek seçebilirsiniz</t>
-  </si>
-  <si>
-    <t>Neden VIT projesine katılmak istiyorsunuz?birden fazla seçenek işaretleyebilirsiniz</t>
-  </si>
-  <si>
-    <t>Aşağıya bu projeye katılmak veya IT sektöründe kariyer yapmak için sizi harekete geçiren motivasyondan bahseder misiniz?</t>
-  </si>
-  <si>
-    <t>Mentor gorusmesi</t>
-  </si>
-  <si>
-    <t>Basvuru Donemi</t>
-  </si>
-  <si>
-    <t>Yesil Tık Olan</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="87">
+  <si>
+    <t>Noord-Holland</t>
   </si>
   <si>
     <t>Eve geçtim (dil çalışıyorum ve/veya iş arıyorum ve/veya çalışıyorum)</t>
@@ -125,9 +59,6 @@
     <t>OK</t>
   </si>
   <si>
-    <t>VIT3</t>
-  </si>
-  <si>
     <t>A2</t>
   </si>
   <si>
@@ -140,83 +71,236 @@
     <t>A1</t>
   </si>
   <si>
+    <t>Cyber Security</t>
+  </si>
+  <si>
+    <t>IT ile ilgili eğitimim veya iş tecrübem olduğu için, İngilizce çalışabilme imkanı olduğu için, Kendi mesleğini yapma imkanım olmadığını düşündüğüm için, Bu mesleği yapabileceğime inanıyorum</t>
+  </si>
+  <si>
     <t>ATANMADI</t>
   </si>
   <si>
+    <t>Utrecht</t>
+  </si>
+  <si>
+    <t>Kampta, oturum görüşmesi bekliyorum</t>
+  </si>
+  <si>
     <t>B2 ve üzeri</t>
   </si>
   <si>
+    <t>IT ye özel ilgim ve becerin olduğunu düşünüyorum.</t>
+  </si>
+  <si>
     <t>Kampta, oturum aldım, belediyem belli , ev bekliyorum</t>
   </si>
   <si>
+    <t>Diğer</t>
+  </si>
+  <si>
     <t>Zuid-Holland</t>
   </si>
   <si>
-    <t>IT ile ilgili eğitimim veya iş tecrübem olduğu için, İngilizce çalışabilme imkanı olduğu için, Bu mesleği yapabileceğime inanıyorum</t>
-  </si>
-  <si>
-    <t>emrah dikici</t>
-  </si>
-  <si>
-    <t>deniz5@gmail.com</t>
-  </si>
-  <si>
-    <t>3512PZ</t>
-  </si>
-  <si>
-    <t>Kararsızım, Hiç bir fikrim yok, Tester</t>
-  </si>
-  <si>
-    <t>Kararsızım ama bir eğitim alıp yapıp yapamayacağımı görmek istiyorum?, Diğer sektörler hakkındaki iş imkanları hakkında yeterince bilgim yok, Bu sektördeki maaşların iyi olduğunu düşünüyorum, Bu sektörde çok fazla eleman ihtiyacı olduğu için, Kendi mesleğini yapma imkanım olmadığını düşündüğüm için, Bu mesleği yapabileceğime inanıyorum</t>
-  </si>
-  <si>
-    <t>Yaşım 46.Muhasebe mesleğimi yapma imkanım yok.En iyi alternatifin bu olduğunu düşünüyorum.</t>
-  </si>
-  <si>
-    <t>mehmet kilinc</t>
-  </si>
-  <si>
-    <t>hikyasar@gmail.com</t>
-  </si>
-  <si>
-    <t>1023 VA</t>
+    <t>Bu sektördeki maaşların iyi olduğunu düşünüyorum, Bu sektörde çok fazla eleman ihtiyacı olduğu için, İngilizce çalışabilme imkanı olduğu için, Kendi mesleğini yapma imkanım olmadığını düşündüğüm için, Bu mesleği yapabileceğime inanıyorum</t>
+  </si>
+  <si>
+    <t>Kararsızım</t>
   </si>
   <si>
     <t>Bu eğitimler ilgi alanım dışında başka alanlardaki eğitimlere katılmak istiyorum</t>
   </si>
   <si>
-    <t>Cloud Engineer, Cyber Security</t>
-  </si>
-  <si>
-    <t>ben ingilizce ogretmeniyim ve burada ogretmenlikle ilgili bikac deneyimim oldu ve ogretmenlikten devam etmeme karari aldim. cybersecurity egitimim var ustune ekleyip is bulmak istiyorum.</t>
-  </si>
-  <si>
-    <t>hasan maltepe</t>
-  </si>
-  <si>
-    <t>mustafa1988@gmail.com</t>
-  </si>
-  <si>
-    <t>5625 CR</t>
-  </si>
-  <si>
-    <t>Kararsızım, Cyber Security</t>
-  </si>
-  <si>
-    <t>Çevremde bir çok kişi bu sektöre girdiği için, Bu sektörde çok fazla eleman ihtiyacı olduğu için, Bu mesleği yapabileceğime inanıyorum</t>
-  </si>
-  <si>
-    <t>Yeni şeyler ögrenmek içim hevesliyim ve gerekli motivasyina sahibim. Günümüzün ve geleceğin önemli bir meslek alanı olan bu sektörde kariyer yapma imkanı benim için güzel bir fırsat olacaktır. Zamanın gerisinde kalmak istemiyorum. Teknolojik yeniliklere uyum sağlayarak kendimi geliştirmek istiyorum. Takım çalışmasına uyum sağlayan ve yeniliklere açık biriyim. Gerekli yönlendirme , bilgilendirme ve rehberlik ile doğru bir adım atacağıma inanıyorum...</t>
+    <t>5.18.2023 11:19:09</t>
+  </si>
+  <si>
+    <t>sinan kus</t>
+  </si>
+  <si>
+    <t>neberberr@gmail.com</t>
+  </si>
+  <si>
+    <t>1474PD</t>
+  </si>
+  <si>
+    <t>Eşim Çalıştığı için uitkering almıyoruz</t>
+  </si>
+  <si>
+    <t>Cloud Engineer</t>
+  </si>
+  <si>
+    <t>Bu sektördeki maaşların iyi olduğunu düşünüyorum, IT ile ilgili eğitimim veya iş tecrübem olduğu için, Kendi mesleğini yapma imkanım olmadığını düşündüğüm için, Bu mesleği yapabileceğime inanıyorum</t>
+  </si>
+  <si>
+    <t>5.21.2023 16:51:57</t>
+  </si>
+  <si>
+    <t>mustafa berber</t>
+  </si>
+  <si>
+    <t>all88@gmail.com</t>
+  </si>
+  <si>
+    <t>5673mh</t>
+  </si>
+  <si>
+    <t>Bu sektördeki maaşların iyi olduğunu düşünüyorum, Bu sektörde çok fazla eleman ihtiyacı olduğu için</t>
+  </si>
+  <si>
+    <t>5.21.2023 21:35:50</t>
+  </si>
+  <si>
+    <t>olcay deniz</t>
+  </si>
+  <si>
+    <t>bircan@gmail.com</t>
+  </si>
+  <si>
+    <t>İngilizcemi geliştirmek istiyorum.</t>
+  </si>
+  <si>
+    <t>Data Engineer, Data Science, Data Analyst</t>
+  </si>
+  <si>
+    <t>IT ile ilgili eğitimim veya iş tecrübem olduğu için, Bu mesleği yapabileceğime inanıyorum</t>
+  </si>
+  <si>
+    <t>IT sektorunde calisabilmek bu alanda ozgun projeler yapabilmek beni gercekten heyecanlandiriyor, guzel bir egitim ve mentor destegiyle de bu alnda basarili olabilecegime inaniyorum.</t>
+  </si>
+  <si>
+    <t>5.21.2023 22:49:30</t>
+  </si>
+  <si>
+    <t>asiye turan</t>
+  </si>
+  <si>
+    <t>salihba@icloud.com</t>
+  </si>
+  <si>
+    <t>3981 EC</t>
+  </si>
+  <si>
+    <t>Henüz belediye belirlenmedi</t>
+  </si>
+  <si>
+    <t>Tester, Web Tasarım, Software Developer</t>
+  </si>
+  <si>
+    <t>IT ile ilgili eğitimim veya iş tecrübem olduğu için</t>
+  </si>
+  <si>
+    <t>Zaten bu sektörde eğitimim ve tecrübem bulunduğu için bu sektörde bulunan iş imkanlarını değerlendirmek istiyorum</t>
+  </si>
+  <si>
+    <t>5.21.2023 23:19:31</t>
+  </si>
+  <si>
+    <t>suat koksal</t>
+  </si>
+  <si>
+    <t>genesis@gmail.com</t>
+  </si>
+  <si>
+    <t>5384CT</t>
+  </si>
+  <si>
+    <t>Formu daha önce de doldurmuştum ancak iletişim bilgilerimi doğru girdiğimden emin olmadığım için tekrar dolduruyorum. 6 aylık bir Cyber Security bootcamp’i bitirdim. İngilizcemi yeterli düzeye getirdiğim zaman işe girebilecek düzeyde olacağıma inanıyorum.</t>
+  </si>
+  <si>
+    <t>5.21.2023 23:49:48</t>
+  </si>
+  <si>
+    <t>talat balkan</t>
+  </si>
+  <si>
+    <t>dastan5@gmail.com</t>
+  </si>
+  <si>
+    <t>3311LH</t>
+  </si>
+  <si>
+    <t>Data Engineer, Cyber Security, Data Analysis</t>
+  </si>
+  <si>
+    <t>Ankara Üniversitesi Hukuk Fakültesi İdare Hukuku kürsüsünde 10 yıl araştırma görevlisi olarak çalıştım. Diploma denklik süreci sonunda elde ettiğim belgelerde Türk hukuku ile Hollanda hukuku arasında ülkeler arasındaki farklılıklardan ötürü bazı farkların bulunduğuna ilişkin ifadeler bulunmaktadır. Ayrıca bu ülkede benzer bir mesleği sürdürmek için C1 seviyesinde Hollandaca ve İngilizce gerekmektedir. Entegrasyon süreci açısından yeni kanuna tabiiyim. Dolayısıyla belediyenin dil konusunda bana bu konuda kesinlikle yardımcı olmayacağını düşünüyorum. Ben de farklı alternatiflere yönelmek istedim. Gelecek açısından IT sektörü en önemli iş alanıdır. Ayrıca globaldir ve diğer birçok meslek gibi sınırlarla bağlı değildir. Bu nedenle bu alanda kariyer yapmak istiyorum. Belli bir seviyede de ingilizce altyapım vardır. Önceki mesleğimden dolayı planlı ve disiplinli çalışmaya alışığım. Ayrıca sabırlı birisiyim. Bu nedenlerden ötürü IT sektöründe kariyer yapabileceğime ve başarılı olacağıma inanıyorum.</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>FULL NAME</t>
+  </si>
+  <si>
+    <t>E-MAIL</t>
+  </si>
+  <si>
+    <t>PHONE NUMBER</t>
+  </si>
+  <si>
+    <t>POSTAL CODE</t>
+  </si>
+  <si>
+    <t>PROVINCE</t>
+  </si>
+  <si>
+    <t>CURRENT STATUS</t>
+  </si>
+  <si>
+    <t>Interest in upcoming ITPH trainings (Cybersecurity / Power Platform)</t>
+  </si>
+  <si>
+    <t>Financial status</t>
+  </si>
+  <si>
+    <t>Currently in a language course</t>
+  </si>
+  <si>
+    <t>Language level[English]</t>
+  </si>
+  <si>
+    <t>Language level[Dutch]</t>
+  </si>
+  <si>
+    <t>Work pressure from municipality</t>
+  </si>
+  <si>
+    <t>Completed another IT course (Bootcamp)</t>
+  </si>
+  <si>
+    <t>Followed online IT course (Coursera/Udemy etc.)</t>
+  </si>
+  <si>
+    <t>Prior IT work experience</t>
+  </si>
+  <si>
+    <t>Currently involved in a project</t>
+  </si>
+  <si>
+    <t>Preferred IT department(s) (multiple selections allowed)</t>
+  </si>
+  <si>
+    <t>Reasons for joining VIT project (multiple selections allowed)</t>
+  </si>
+  <si>
+    <t>Motivation for joining project / IT career</t>
+  </si>
+  <si>
+    <t>Application period</t>
+  </si>
+  <si>
+    <t>Marked with Green Check</t>
+  </si>
+  <si>
+    <t>MENTOR MEETING</t>
+  </si>
+  <si>
+    <t>VIT2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d\.m\.yyyy\ hh:mm:ss"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -245,6 +329,27 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF060606"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -266,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -275,9 +380,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,109 +600,112 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AC6"/>
+  <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD6"/>
+      <selection pane="bottomLeft" activeCell="V2" sqref="V2:V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="7" max="7" width="51.42578125" customWidth="1"/>
-    <col min="8" max="8" width="83.42578125" customWidth="1"/>
-    <col min="9" max="9" width="37.7109375" customWidth="1"/>
-    <col min="10" max="10" width="41.85546875" customWidth="1"/>
-    <col min="11" max="11" width="28.42578125" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" customWidth="1"/>
-    <col min="13" max="13" width="48.5703125" customWidth="1"/>
-    <col min="14" max="14" width="51.140625" customWidth="1"/>
-    <col min="15" max="15" width="60" customWidth="1"/>
-    <col min="16" max="16" width="41" customWidth="1"/>
-    <col min="17" max="17" width="74.7109375" customWidth="1"/>
-    <col min="18" max="18" width="68.5703125" customWidth="1"/>
-    <col min="19" max="19" width="258" customWidth="1"/>
-    <col min="20" max="20" width="739.85546875" customWidth="1"/>
-    <col min="21" max="21" width="28.42578125" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" customWidth="1"/>
-    <col min="23" max="23" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" customWidth="1"/>
+    <col min="8" max="8" width="38.140625" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="13" max="13" width="26.28515625" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" customWidth="1"/>
+    <col min="18" max="18" width="37.42578125" customWidth="1"/>
+    <col min="19" max="19" width="57" customWidth="1"/>
+    <col min="20" max="20" width="40.28515625" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" customWidth="1"/>
+    <col min="22" max="22" width="8.85546875" customWidth="1"/>
+    <col min="23" max="23" width="6.42578125" customWidth="1"/>
+    <col min="24" max="24" width="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>63</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
@@ -608,71 +715,72 @@
       <c r="AC1" s="4"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
-        <v>45204.432835648149</v>
+      <c r="A2" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D2" s="3">
-        <v>616873780</v>
+        <f>306971867930</f>
+        <v>306971867930</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
@@ -681,71 +789,71 @@
       <c r="AA2" s="3"/>
     </row>
     <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>45204.437094907407</v>
+      <c r="A3" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D3" s="3">
-        <v>684744177</v>
+        <v>612672855</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="S3" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
@@ -754,71 +862,72 @@
       <c r="AA3" s="3"/>
     </row>
     <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>45204.524513888886</v>
+      <c r="A4" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D4" s="3">
-        <v>684726936</v>
+        <f>31685489992</f>
+        <v>31685489992</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
@@ -826,13 +935,234 @@
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
     </row>
-    <row r="5" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E5" s="4"/>
+    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="3">
+        <v>684536214</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
     </row>
-    <row r="6" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E6" s="4"/>
+    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="3">
+        <v>641118933</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+    </row>
+    <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="3">
+        <v>620099967</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+    </row>
+    <row r="8" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E9" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>